--- a/SpaOnline/Productos - Muestreo Datos.xlsx
+++ b/SpaOnline/Productos - Muestreo Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO GIT/SpaOnline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{2CEC2781-028A-4B20-B688-2C0F59641A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D1C085F-1C09-4C48-8E54-C98E0B8C2A73}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14904C4F-F931-4241-A035-5CDC9DF4EE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -626,13 +626,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -692,13 +694,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -774,12 +777,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/SpaOnline/Productos - Muestreo Datos.xlsx
+++ b/SpaOnline/Productos - Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14904C4F-F931-4241-A035-5CDC9DF4EE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B2CB62-9037-42D0-9D8F-4263A4CD2457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +747,7 @@
         <v>Lemar</v>
       </c>
       <c r="D3" s="6" t="str">
-        <f t="shared" ref="D3:D4" si="0">B3&amp;"-"&amp;C3</f>
+        <f>B3&amp;"-"&amp;C3</f>
         <v>Protector Solar-Lemar</v>
       </c>
     </row>
@@ -763,7 +763,7 @@
         <v>MediPiel</v>
       </c>
       <c r="D4" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>B4&amp;"-"&amp;C4</f>
         <v>Crema Coporal-MediPiel</v>
       </c>
     </row>

--- a/SpaOnline/Productos - Muestreo Datos.xlsx
+++ b/SpaOnline/Productos - Muestreo Datos.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B2CB62-9037-42D0-9D8F-4263A4CD2457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5825848-6B09-4928-A6A6-4FA387F4BC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
-    <sheet name="Productos" sheetId="5" r:id="rId3"/>
+    <sheet name="Producto" sheetId="5" r:id="rId3"/>
     <sheet name="Fabricante" sheetId="3" r:id="rId4"/>
+    <sheet name="ProductoporFabricante" sheetId="6" r:id="rId5"/>
+    <sheet name="Categoria" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -91,41 +93,71 @@
     <t>Combinacion única</t>
   </si>
   <si>
-    <t>CeraV</t>
-  </si>
-  <si>
-    <t>Lemar</t>
-  </si>
-  <si>
-    <t>MediPiel</t>
-  </si>
-  <si>
     <t>Referenciado</t>
   </si>
   <si>
-    <t>Productos</t>
-  </si>
-  <si>
-    <t>Crema de Manos</t>
-  </si>
-  <si>
-    <t>Protector Solar</t>
-  </si>
-  <si>
-    <t>Crema Coporal</t>
-  </si>
-  <si>
     <t>Producto</t>
   </si>
   <si>
     <t>Objeto de dominio que contiene la informacion de los productos que se van a vender en el Spa</t>
+  </si>
+  <si>
+    <t>L'Oréal</t>
+  </si>
+  <si>
+    <t>Dermalogica</t>
+  </si>
+  <si>
+    <t>Lubridem</t>
+  </si>
+  <si>
+    <t>Producto Por Fabricante</t>
+  </si>
+  <si>
+    <t>NombreProducto</t>
+  </si>
+  <si>
+    <t>L'Oréal Paris Revitalift Crema de Día Anti-edad</t>
+  </si>
+  <si>
+    <t>Dermalogica Daily Microfoliant</t>
+  </si>
+  <si>
+    <t>Lubriderm Daily Moisture Lotion</t>
+  </si>
+  <si>
+    <t>Combinacion Unica</t>
+  </si>
+  <si>
+    <t>Masajes</t>
+  </si>
+  <si>
+    <t>Cuidado facial</t>
+  </si>
+  <si>
+    <t>Cuidado corporal</t>
+  </si>
+  <si>
+    <t>Crema Facial Anti-edad</t>
+  </si>
+  <si>
+    <t>Loción Corporal Hidratante</t>
+  </si>
+  <si>
+    <t>ProductoporFabricante</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Crema para masajes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +177,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -207,6 +252,34 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -233,20 +306,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>668119</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>162364</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>648854</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F36F55-9D65-BD75-1727-CA1697C0E383}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02900BEC-7BBA-701E-D590-02438870758C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -262,8 +335,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="66675"/>
-          <a:ext cx="9812119" cy="3143689"/>
+          <a:off x="0" y="28575"/>
+          <a:ext cx="8268854" cy="2838846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -611,7 +684,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,15 +696,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -651,38 +724,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" location="Fabricante!A1" display="Fabricante" xr:uid="{B6196C86-5494-41DF-B9BA-21C812FFCEC4}"/>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{F8E25110-D015-427A-BE9B-07EAE75C98E4}"/>
+    <hyperlink ref="A4" location="Fabricante!A1" display="Fabricante" xr:uid="{B6196C86-5494-41DF-B9BA-21C812FFCEC4}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{F8E25110-D015-427A-BE9B-07EAE75C98E4}"/>
+    <hyperlink ref="A3" location="Productos!A1" display="Productos" xr:uid="{F6E69E19-C906-4057-8552-4530EC5719C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -691,21 +773,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -713,58 +795,73 @@
         <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>Fabricante!C2</f>
-        <v>CeraV</v>
-      </c>
-      <c r="D2" s="6" t="str">
+      <c r="B2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="15" t="str">
+        <f>ProductoporFabricante!D2</f>
+        <v>L'Oréal Paris Revitalift Crema de Día Anti-edad</v>
+      </c>
+      <c r="D2" s="15" t="str">
+        <f>Categoria!C2</f>
+        <v>Cuidado corporal</v>
+      </c>
+      <c r="E2" s="17" t="str">
         <f>B2&amp;"-"&amp;C2</f>
-        <v>Crema de Manos-CeraV</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+        <v>Loción Corporal Hidratante-L'Oréal Paris Revitalift Crema de Día Anti-edad</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>Fabricante!C3</f>
-        <v>Lemar</v>
-      </c>
-      <c r="D3" s="6" t="str">
+      <c r="B3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="15" t="str">
+        <f>ProductoporFabricante!D3</f>
+        <v>Dermalogica Daily Microfoliant</v>
+      </c>
+      <c r="D3" s="15" t="str">
+        <f>Categoria!C3</f>
+        <v>Cuidado facial</v>
+      </c>
+      <c r="E3" s="11" t="str">
         <f>B3&amp;"-"&amp;C3</f>
-        <v>Protector Solar-Lemar</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>Fabricante!C4</f>
-        <v>MediPiel</v>
-      </c>
-      <c r="D4" s="6" t="str">
+        <v>Crema Facial Anti-edad-Dermalogica Daily Microfoliant</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="15" t="str">
+        <f>ProductoporFabricante!D4</f>
+        <v>Lubriderm Daily Moisture Lotion</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f>Categoria!C4</f>
+        <v>Masajes</v>
+      </c>
+      <c r="E4" s="11" t="str">
         <f>B4&amp;"-"&amp;C4</f>
-        <v>Crema Coporal-MediPiel</v>
+        <v>Crema para masajes-Lubriderm Daily Moisture Lotion</v>
       </c>
     </row>
   </sheetData>
@@ -777,13 +874,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -803,11 +900,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6" t="str">
         <f>B2</f>
-        <v>CeraV</v>
+        <v>L'Oréal</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,11 +912,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:C4" si="0">B3</f>
-        <v>Lemar</v>
+        <v>Dermalogica</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -827,11 +924,165 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>MediPiel</v>
+        <v>Lubridem</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C0F06C-9ADE-4A7C-AC8D-92B01D231BF9}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>Fabricante!C2</f>
+        <v>L'Oréal</v>
+      </c>
+      <c r="D2" s="11" t="str">
+        <f>B2</f>
+        <v>L'Oréal Paris Revitalift Crema de Día Anti-edad</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>Fabricante!C3</f>
+        <v>Dermalogica</v>
+      </c>
+      <c r="D3" s="11" t="str">
+        <f t="shared" ref="D3:D4" si="0">B3</f>
+        <v>Dermalogica Daily Microfoliant</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>Fabricante!C4</f>
+        <v>Lubridem</v>
+      </c>
+      <c r="D4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Lubriderm Daily Moisture Lotion</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" location="Fabricante!C2" display="Fabricante!C2" xr:uid="{1097BE8D-189A-4CB5-A8F1-5FFCAE8F109C}"/>
+    <hyperlink ref="C3:C4" location="Fabricante!C2" display="Fabricante!C2" xr:uid="{7F1C4B82-A937-408B-9B78-A4AA56199E4C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4426172C-0972-46E3-82F0-32B5994B8FFE}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>B2</f>
+        <v>Cuidado corporal</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="str">
+        <f t="shared" ref="C3:C4" si="0">B3</f>
+        <v>Cuidado facial</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Masajes</v>
       </c>
     </row>
   </sheetData>

--- a/SpaOnline/Productos - Muestreo Datos.xlsx
+++ b/SpaOnline/Productos - Muestreo Datos.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5825848-6B09-4928-A6A6-4FA387F4BC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8682D55D-C7F3-4007-9E9F-B392254304DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
-    <sheet name="Producto" sheetId="5" r:id="rId3"/>
-    <sheet name="Fabricante" sheetId="3" r:id="rId4"/>
+    <sheet name="Fabricante" sheetId="3" r:id="rId3"/>
+    <sheet name="Producto" sheetId="5" r:id="rId4"/>
     <sheet name="ProductoporFabricante" sheetId="6" r:id="rId5"/>
     <sheet name="Categoria" sheetId="7" r:id="rId6"/>
+    <sheet name="ProductoInventario" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -72,9 +73,6 @@
     <t>TipoObjetoDominio</t>
   </si>
   <si>
-    <t>Contextro</t>
-  </si>
-  <si>
     <t>Fabricante</t>
   </si>
   <si>
@@ -99,9 +97,6 @@
     <t>Producto</t>
   </si>
   <si>
-    <t>Objeto de dominio que contiene la informacion de los productos que se van a vender en el Spa</t>
-  </si>
-  <si>
     <t>L'Oréal</t>
   </si>
   <si>
@@ -151,13 +146,43 @@
   </si>
   <si>
     <t>Crema para masajes</t>
+  </si>
+  <si>
+    <t>objeto de dominio que describe los productos específicos ofrecidos por cada fabricante en particular</t>
+  </si>
+  <si>
+    <t>Productos</t>
+  </si>
+  <si>
+    <t>Contexto</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion de los productos que se van a utilzar en el Spa</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>objeto de dominio que describe los productos específicos ofrecidos por cada fabricante</t>
+  </si>
+  <si>
+    <t>ProductoporInventario</t>
+  </si>
+  <si>
+    <t>FechaCompra</t>
+  </si>
+  <si>
+    <t>PrecioCompraU</t>
+  </si>
+  <si>
+    <t>objeto de dominio gestiona el inventario de productos disponibles en el spa.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +214,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF0D0D0D"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -237,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -265,7 +297,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -280,6 +311,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -696,10 +750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +761,7 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,50 +775,86 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
+      <c r="A2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" location="Fabricante!A1" display="Fabricante" xr:uid="{B6196C86-5494-41DF-B9BA-21C812FFCEC4}"/>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{F8E25110-D015-427A-BE9B-07EAE75C98E4}"/>
-    <hyperlink ref="A3" location="Productos!A1" display="Productos" xr:uid="{F6E69E19-C906-4057-8552-4530EC5719C0}"/>
+    <hyperlink ref="A6" location="Fabricante!A1" display="Fabricante" xr:uid="{B6196C86-5494-41DF-B9BA-21C812FFCEC4}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{F8E25110-D015-427A-BE9B-07EAE75C98E4}"/>
+    <hyperlink ref="A4" location="Productos!A1" display="Productos" xr:uid="{F6E69E19-C906-4057-8552-4530EC5719C0}"/>
+    <hyperlink ref="A2" location="ProductoporFabricante!A1" display="Producto Por Fabricante" xr:uid="{3005975D-F15C-49D9-9787-D147A2546BE6}"/>
+    <hyperlink ref="A3" location="Categoria!A1" display="categoria" xr:uid="{21B60CB4-94E8-44FA-9E5D-A8E3C8478B12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -772,104 +862,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="15" t="str">
-        <f>ProductoporFabricante!D2</f>
-        <v>L'Oréal Paris Revitalift Crema de Día Anti-edad</v>
-      </c>
-      <c r="D2" s="15" t="str">
-        <f>Categoria!C2</f>
-        <v>Cuidado corporal</v>
-      </c>
-      <c r="E2" s="17" t="str">
-        <f>B2&amp;"-"&amp;C2</f>
-        <v>Loción Corporal Hidratante-L'Oréal Paris Revitalift Crema de Día Anti-edad</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="15" t="str">
-        <f>ProductoporFabricante!D3</f>
-        <v>Dermalogica Daily Microfoliant</v>
-      </c>
-      <c r="D3" s="15" t="str">
-        <f>Categoria!C3</f>
-        <v>Cuidado facial</v>
-      </c>
-      <c r="E3" s="11" t="str">
-        <f>B3&amp;"-"&amp;C3</f>
-        <v>Crema Facial Anti-edad-Dermalogica Daily Microfoliant</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="15" t="str">
-        <f>ProductoporFabricante!D4</f>
-        <v>Lubriderm Daily Moisture Lotion</v>
-      </c>
-      <c r="D4" s="15" t="str">
-        <f>Categoria!C4</f>
-        <v>Masajes</v>
-      </c>
-      <c r="E4" s="11" t="str">
-        <f>B4&amp;"-"&amp;C4</f>
-        <v>Crema para masajes-Lubriderm Daily Moisture Lotion</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27757F1-FD83-4C60-A977-3E4A8F875641}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -886,13 +878,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -900,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6" t="str">
         <f>B2</f>
@@ -912,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:C4" si="0">B3</f>
@@ -924,11 +916,109 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Lubridem</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="14" t="str">
+        <f>ProductoporFabricante!D2</f>
+        <v>L'Oréal Paris Revitalift Crema de Día Anti-edad</v>
+      </c>
+      <c r="D2" s="14" t="str">
+        <f>Categoria!C2</f>
+        <v>Cuidado corporal</v>
+      </c>
+      <c r="E2" s="16" t="str">
+        <f>B2&amp;"-"&amp;D2</f>
+        <v>Loción Corporal Hidratante-Cuidado corporal</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="14" t="str">
+        <f>ProductoporFabricante!D3</f>
+        <v>Dermalogica Daily Microfoliant</v>
+      </c>
+      <c r="D3" s="14" t="str">
+        <f>Categoria!C3</f>
+        <v>Cuidado facial</v>
+      </c>
+      <c r="E3" s="16" t="str">
+        <f t="shared" ref="E3:E4" si="0">B3&amp;"-"&amp;D3</f>
+        <v>Crema Facial Anti-edad-Cuidado facial</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="14" t="str">
+        <f>ProductoporFabricante!D4</f>
+        <v>Lubriderm Daily Moisture Lotion</v>
+      </c>
+      <c r="D4" s="14" t="str">
+        <f>Categoria!C4</f>
+        <v>Masajes</v>
+      </c>
+      <c r="E4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Crema para masajes-Masajes</v>
       </c>
     </row>
   </sheetData>
@@ -954,16 +1044,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -971,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>Fabricante!C2</f>
@@ -987,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>Fabricante!C3</f>
@@ -1003,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>Fabricante!C4</f>
@@ -1028,7 +1118,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,33 +1130,33 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>24</v>
+      <c r="B2" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="C2" s="6" t="str">
         <f>B2</f>
         <v>Cuidado corporal</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>23</v>
+      <c r="B3" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:C4" si="0">B3</f>
@@ -1078,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1088,4 +1178,104 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F82CC5C-95E7-403E-9BA4-87B51BF847CF}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="str">
+        <f>Producto!E2</f>
+        <v>Loción Corporal Hidratante-Cuidado corporal</v>
+      </c>
+      <c r="C2" s="24">
+        <v>12000</v>
+      </c>
+      <c r="D2" s="25">
+        <v>45369</v>
+      </c>
+      <c r="E2" s="26" t="str">
+        <f>B2&amp;"-"&amp;C2&amp;"-"&amp;D2</f>
+        <v>Loción Corporal Hidratante-Cuidado corporal-12000-45369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="str">
+        <f>Producto!E3</f>
+        <v>Crema Facial Anti-edad-Cuidado facial</v>
+      </c>
+      <c r="C3" s="24">
+        <v>20000</v>
+      </c>
+      <c r="D3" s="25">
+        <v>45346</v>
+      </c>
+      <c r="E3" s="26" t="str">
+        <f t="shared" ref="E3:E4" si="0">B3&amp;"-"&amp;C3&amp;"-"&amp;D3</f>
+        <v>Crema Facial Anti-edad-Cuidado facial-20000-45346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="str">
+        <f>Producto!E4</f>
+        <v>Crema para masajes-Masajes</v>
+      </c>
+      <c r="C4" s="24">
+        <v>14500</v>
+      </c>
+      <c r="D4" s="25">
+        <v>45262</v>
+      </c>
+      <c r="E4" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Crema para masajes-Masajes-14500-45262</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="Producto!E2" display="Producto!E2" xr:uid="{D2A08A65-41A4-4DD9-B908-AC05CF5B3747}"/>
+    <hyperlink ref="B3:B4" location="Producto!E2" display="Producto!E2" xr:uid="{ECA36DD5-E040-46C2-95F8-2F84CDA9089D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>